--- a/biology/Botanique/Knautie_d'Auvergne/Knautie_d'Auvergne.xlsx
+++ b/biology/Botanique/Knautie_d'Auvergne/Knautie_d'Auvergne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Knautie_d%27Auvergne</t>
+          <t>Knautie_d'Auvergne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Knautia arvernensis
 La Knautie d'Auvergne (Knautia arvernensis) est une espèce de plantes vivaces de la famille des Dipsacacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Knautie_d%27Auvergne</t>
+          <t>Knautie_d'Auvergne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante se présente sous la forme d'une rosette basale de feuilles assez molles et de forme lancéolée d'où s'échappent plusieurs tiges portant chacune un capitule aplati de fleurs roses de 3 à 4 cm de diamètre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Knautie_d%27Auvergne</t>
+          <t>Knautie_d'Auvergne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Knautie d'Auvergne est une plante qui croît essentiellement dans le Massif central et ponctuellement dans des régions proches (Pyrénées) au-dessus de 500 m d'altitude. Elle affectionne les landes sèches, les bords de chemin sur des sols plutôt acides (granite).
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Knautie_d%27Auvergne</t>
+          <t>Knautie_d'Auvergne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Distinction avec des taxons proches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une confusion possible avec la Knautie à feuilles de cardère (Knautia dipsacifolia ou Knautia maxima) qui est aussi une espèce de montagne qu'on rencontre dans le Massif central. Les deux taxons sont en effet très proches morphologiquement et rien ne les distingue en apparence, à ceci près que Knautia arvernensis a une croissance monopodiale alors que Knautia maxima a une croissance sympodiale[2]. Knautia arvernensis présente aussi généralement un aspect plus touffu et plus vigoureux et pousse dans des stations plus sèches et de plein soleil (alors que Knautia maxima préfère l'ombre et l'humidité).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une confusion possible avec la Knautie à feuilles de cardère (Knautia dipsacifolia ou Knautia maxima) qui est aussi une espèce de montagne qu'on rencontre dans le Massif central. Les deux taxons sont en effet très proches morphologiquement et rien ne les distingue en apparence, à ceci près que Knautia arvernensis a une croissance monopodiale alors que Knautia maxima a une croissance sympodiale. Knautia arvernensis présente aussi généralement un aspect plus touffu et plus vigoureux et pousse dans des stations plus sèches et de plein soleil (alors que Knautia maxima préfère l'ombre et l'humidité).
 </t>
         </is>
       </c>
